--- a/biology/Zoologie/Cirrhinus/Cirrhinus.xlsx
+++ b/biology/Zoologie/Cirrhinus/Cirrhinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cirrhinus est un genre de poissons d'eau douce ou saumâtre téléostéens de la famille des Cyprinidae (ordre des Cypriniformes). Les membres de ce genre sont originaires d'Asie du Sud (Indochine et en Chine méridionale)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cirrhinus est un genre de poissons d'eau douce ou saumâtre téléostéens de la famille des Cyprinidae (ordre des Cypriniformes). Les membres de ce genre sont originaires d'Asie du Sud (Indochine et en Chine méridionale).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (8 janvier 2024)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (8 janvier 2024) :
 Cirrhinus cirrhosus (Bloch, 1795)
 Cirrhinus inornatus Roberts, 1997
 Cirrhinus jullieni Sauvage, 1878
